--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Whitaker/Joseph_Whitaker.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Whitaker/Joseph_Whitaker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Isaac Spadafora Whitaker (né le 19 mars 1850 à Palerme – mort le 3 novembre 1936 à Rome) est un ornithologue, archéologue et sportif anglo-sicilien. Il est surtout connu pour ses travaux sur les oiseaux de Tunisie et pour s'être impliqué dans la fondation du club de football sicilien U.S. Città di Palermo. Son nom reste en outre attaché au site archéologique de Motyé et au musée de ce dernier.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +579,9 @@
           <t>L'archéologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Whitaker occupa les dernières années de sa vie à l'archéologie, achetant l'île de Motyé près de Trapani, site d'une cité phénicienne fondée au VIIIe siècle av. J.-C. Il fit le bilan de ses fouilles dans un ouvrage publié en 1921.
 </t>
@@ -594,7 +612,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Notes on some Tunisian birds. Ibis 78-100, map. 1894.
 Additional notes on Tunisian birds. Ibis 85 -106, map. 1895.
@@ -610,7 +630,7 @@
 On an Abnormal nest of Ardea cinerea Bull. Brit. Orn. Club. vol. viii, p.xxxvii. 1899.
 On the Occurrence of Caprimulgus aeggptius at Palermo Ibis 475-476.
 The Birds of Tunisia, 2 vols. Pp. xxxii, 294; xviii, 410, 17 full page plates of which 15 are handcoloured after Grönvold, 2 photograv., 1 clr folding map. Londres, 1re édition. Edition limited to 250 copies only. 1905
-Motya - A Phoenician Colony in Sicily, v. George Bell &amp; Sons, 1921[1].</t>
+Motya - A Phoenician Colony in Sicily, v. George Bell &amp; Sons, 1921.</t>
         </is>
       </c>
     </row>
